--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni Stuttgart\Github\OJCS-LipNNs\2D-LipCNNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8D891-163A-4F49-8AF9-2BD9821D66E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684AF6C-89EF-492C-BD7E-667190281844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1D4EFDD7-0818-4AF7-BB44-2594B7AC24C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1D4EFDD7-0818-4AF7-BB44-2594B7AC24C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="25">
   <si>
     <t>All2C2F</t>
   </si>
@@ -97,6 +98,21 @@
   <si>
     <t>Vanilla2C2FPool</t>
   </si>
+  <si>
+    <t>Lipschitz LB</t>
+  </si>
+  <si>
+    <t>Clean Acc</t>
+  </si>
+  <si>
+    <t>CR 36</t>
+  </si>
+  <si>
+    <t>CR 72</t>
+  </si>
+  <si>
+    <t>CR 108</t>
+  </si>
 </sst>
 </file>
 
@@ -135,10 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF78E4F-6412-433B-9E91-36B1AD75DE98}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="144" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G102" sqref="E97:G102"/>
+    <sheetView topLeftCell="A20" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3170,7 +3187,7 @@
         <v>0.67189997434616</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ref="L67:L94" si="18">AVERAGE(F67:F69)</f>
+        <f t="shared" ref="L67:L112" si="18">AVERAGE(F67:F69)</f>
         <v>0.47723935291169367</v>
       </c>
       <c r="M67" s="1">
@@ -4299,6 +4316,7 @@
       <c r="J95">
         <v>0.526799976825714</v>
       </c>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
@@ -4331,13 +4349,14 @@
       <c r="J96">
         <v>0.50340002775192205</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4349,118 +4368,160 @@
         <v>8</v>
       </c>
       <c r="F97">
-        <v>5.4013803413270898</v>
+        <v>3.64550061842144</v>
       </c>
       <c r="G97">
-        <v>0.984300017356872</v>
+        <v>0.97140002250671298</v>
       </c>
       <c r="H97">
-        <v>0.72920000553131104</v>
+        <v>0.78289997577667203</v>
       </c>
       <c r="I97">
-        <v>0.22249999642372101</v>
+        <v>0.31430000066757202</v>
       </c>
       <c r="J97">
-        <v>0.168999999761581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.24580000340938499</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="18"/>
+        <v>3.7302152239375501</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" ref="M97" si="59">AVERAGE(G97:G99)</f>
+        <v>0.97349999348322502</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" ref="N97" si="60">AVERAGE(H97:H99)</f>
+        <v>0.79733333985010735</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" ref="O97" si="61">AVERAGE(I97:I99)</f>
+        <v>0.33136666814486165</v>
+      </c>
+      <c r="P97" s="2">
+        <f t="shared" ref="P97" si="62">AVERAGE(J97:J99)</f>
+        <v>0.25966666638851099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>296</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
         <v>8</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>20</v>
-      </c>
-      <c r="E98">
+      <c r="F98">
+        <v>3.6955530197227602</v>
+      </c>
+      <c r="G98">
+        <v>0.97439998388290405</v>
+      </c>
+      <c r="H98">
+        <v>0.79750001430511397</v>
+      </c>
+      <c r="I98">
+        <v>0.335999995470047</v>
+      </c>
+      <c r="J98">
+        <v>0.26190000772476102</v>
+      </c>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>123</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>3.8495920336684502</v>
+      </c>
+      <c r="G99">
+        <v>0.97469997406005804</v>
+      </c>
+      <c r="H99">
+        <v>0.81160002946853604</v>
+      </c>
+      <c r="I99">
+        <v>0.343800008296966</v>
+      </c>
+      <c r="J99">
+        <v>0.271299988031387</v>
+      </c>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
         <v>16</v>
       </c>
-      <c r="F98">
-        <v>8.2978455286586499</v>
-      </c>
-      <c r="G98">
-        <v>0.98680001497268599</v>
-      </c>
-      <c r="H98">
-        <v>0.66339999437332098</v>
-      </c>
-      <c r="I98">
-        <v>0.160699993371963</v>
-      </c>
-      <c r="J98">
-        <v>0.11869999766349699</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>20</v>
-      </c>
-      <c r="E99">
-        <v>32</v>
-      </c>
-      <c r="F99">
-        <v>12.5665744228333</v>
-      </c>
-      <c r="G99">
-        <v>0.98629999160766602</v>
-      </c>
-      <c r="H99">
-        <v>0.54830002784729004</v>
-      </c>
-      <c r="I99">
-        <v>8.4799997508525807E-2</v>
-      </c>
-      <c r="J99">
-        <v>5.6499999016523299E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>20</v>
-      </c>
-      <c r="E100">
-        <v>8</v>
-      </c>
       <c r="F100">
-        <v>3.64550061842144</v>
+        <v>4.5059317594153301</v>
       </c>
       <c r="G100">
-        <v>0.97140002250671298</v>
+        <v>0.98360002040863004</v>
       </c>
       <c r="H100">
-        <v>0.78289997577667203</v>
+        <v>0.82749998569488503</v>
       </c>
       <c r="I100">
-        <v>0.31430000066757202</v>
+        <v>0.35760000348091098</v>
       </c>
       <c r="J100">
-        <v>0.24580000340938499</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.28610000014305098</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="18"/>
+        <v>4.7333266438793933</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" ref="M100:M112" si="63">AVERAGE(G100:G102)</f>
+        <v>0.98286668459574322</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" ref="N100:N112" si="64">AVERAGE(H100:H102)</f>
+        <v>0.82169999678929606</v>
+      </c>
+      <c r="O100" s="2">
+        <f t="shared" ref="O100:O112" si="65">AVERAGE(I100:I102)</f>
+        <v>0.34756666421890231</v>
+      </c>
+      <c r="P100" s="2">
+        <f t="shared" ref="P100:P112" si="66">AVERAGE(J100:J102)</f>
+        <v>0.27569999297459868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -4468,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="D101">
         <v>20</v>
@@ -4477,22 +4538,27 @@
         <v>16</v>
       </c>
       <c r="F101">
-        <v>4.5059317594153301</v>
+        <v>5.0944595310806298</v>
       </c>
       <c r="G101">
-        <v>0.98360002040863004</v>
+        <v>0.982100009918212</v>
       </c>
       <c r="H101">
-        <v>0.82749998569488503</v>
+        <v>0.81209999322891202</v>
       </c>
       <c r="I101">
-        <v>0.35760000348091098</v>
+        <v>0.33129999041557301</v>
       </c>
       <c r="J101">
-        <v>0.28610000014305098</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.25749999284744202</v>
+      </c>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -4500,33 +4566,2719 @@
         <v>6</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D102">
         <v>20</v>
       </c>
       <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>4.59958864114222</v>
+      </c>
+      <c r="G102">
+        <v>0.98290002346038796</v>
+      </c>
+      <c r="H102">
+        <v>0.82550001144409102</v>
+      </c>
+      <c r="I102">
+        <v>0.353799998760223</v>
+      </c>
+      <c r="J102">
+        <v>0.283499985933303</v>
+      </c>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
         <v>32</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>5.7690531972309298</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>0.988900005817413</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>0.87519997358322099</v>
       </c>
-      <c r="I102">
+      <c r="I103">
         <v>0.46630001068115201</v>
       </c>
-      <c r="J102">
+      <c r="J103">
         <v>0.38879999518394398</v>
       </c>
+      <c r="L103" s="2">
+        <f t="shared" si="18"/>
+        <v>5.8710919594134969</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="63"/>
+        <v>0.98853333791096965</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="64"/>
+        <v>0.87043333053588834</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="65"/>
+        <v>0.44506667057673099</v>
+      </c>
+      <c r="P103" s="2">
+        <f t="shared" si="66"/>
+        <v>0.36833332975705435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>296</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>5.9086925158883004</v>
+      </c>
+      <c r="G104">
+        <v>0.98739999532699496</v>
+      </c>
+      <c r="H104">
+        <v>0.86790001392364502</v>
+      </c>
+      <c r="I104">
+        <v>0.43160000443458502</v>
+      </c>
+      <c r="J104">
+        <v>0.35780000686645502</v>
+      </c>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>123</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>32</v>
+      </c>
+      <c r="F105">
+        <v>5.9355301651212597</v>
+      </c>
+      <c r="G105">
+        <v>0.98930001258850098</v>
+      </c>
+      <c r="H105">
+        <v>0.86820000410079901</v>
+      </c>
+      <c r="I105">
+        <v>0.43729999661445601</v>
+      </c>
+      <c r="J105">
+        <v>0.35839998722076399</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>5.4013803413270898</v>
+      </c>
+      <c r="G106">
+        <v>0.984300017356872</v>
+      </c>
+      <c r="H106">
+        <v>0.72920000553131104</v>
+      </c>
+      <c r="I106">
+        <v>0.22249999642372101</v>
+      </c>
+      <c r="J106">
+        <v>0.168999999761581</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" si="18"/>
+        <v>4.80743963159291</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="63"/>
+        <v>0.97636667887369766</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="64"/>
+        <v>0.69876666863759329</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" si="65"/>
+        <v>0.22609999775886466</v>
+      </c>
+      <c r="P106" s="2">
+        <f t="shared" si="66"/>
+        <v>0.17286666731039632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>296</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>5.8194787573984996</v>
+      </c>
+      <c r="G107">
+        <v>0.97570002079009999</v>
+      </c>
+      <c r="H107">
+        <v>0.64190000295639005</v>
+      </c>
+      <c r="I107">
+        <v>0.19220000505447299</v>
+      </c>
+      <c r="J107">
+        <v>0.14640000462531999</v>
+      </c>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>123</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>3.2014597960531401</v>
+      </c>
+      <c r="G108">
+        <v>0.96909999847412098</v>
+      </c>
+      <c r="H108">
+        <v>0.72519999742507901</v>
+      </c>
+      <c r="I108">
+        <v>0.26359999179839999</v>
+      </c>
+      <c r="J108">
+        <v>0.203199997544288</v>
+      </c>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>8.2978455286586499</v>
+      </c>
+      <c r="G109">
+        <v>0.98680001497268599</v>
+      </c>
+      <c r="H109">
+        <v>0.66339999437332098</v>
+      </c>
+      <c r="I109">
+        <v>0.160699993371963</v>
+      </c>
+      <c r="J109">
+        <v>0.11869999766349699</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="18"/>
+        <v>7.7059244995287095</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="63"/>
+        <v>0.97896667321522968</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="64"/>
+        <v>0.60883333285649566</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="65"/>
+        <v>0.16000000139077467</v>
+      </c>
+      <c r="P109" s="2">
+        <f t="shared" si="66"/>
+        <v>0.12009999901056234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>296</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>8.45329467828779</v>
+      </c>
+      <c r="G110">
+        <v>0.97479999065399103</v>
+      </c>
+      <c r="H110">
+        <v>0.54629999399185103</v>
+      </c>
+      <c r="I110">
+        <v>0.14040000736713401</v>
+      </c>
+      <c r="J110">
+        <v>0.104400001466274</v>
+      </c>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>123</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>6.3666332916396904</v>
+      </c>
+      <c r="G111">
+        <v>0.97530001401901201</v>
+      </c>
+      <c r="H111">
+        <v>0.61680001020431496</v>
+      </c>
+      <c r="I111">
+        <v>0.17890000343322701</v>
+      </c>
+      <c r="J111">
+        <v>0.137199997901916</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>32</v>
+      </c>
+      <c r="F112">
+        <v>12.5665744228333</v>
+      </c>
+      <c r="G112">
+        <v>0.98629999160766602</v>
+      </c>
+      <c r="H112">
+        <v>0.54830002784729004</v>
+      </c>
+      <c r="I112">
+        <v>8.4799997508525807E-2</v>
+      </c>
+      <c r="J112">
+        <v>5.6499999016523299E-2</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="18"/>
+        <v>11.624506228259099</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="63"/>
+        <v>0.98050000270207693</v>
+      </c>
+      <c r="N112" s="2">
+        <f t="shared" si="64"/>
+        <v>0.55606667200724236</v>
+      </c>
+      <c r="O112" s="2">
+        <f t="shared" si="65"/>
+        <v>0.12963333477576558</v>
+      </c>
+      <c r="P112" s="2">
+        <f t="shared" si="66"/>
+        <v>9.5633334169785103E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>296</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>11.187914622205</v>
+      </c>
+      <c r="G113">
+        <v>0.980000019073486</v>
+      </c>
+      <c r="H113">
+        <v>0.54379999637603704</v>
+      </c>
+      <c r="I113">
+        <v>0.14020000398158999</v>
+      </c>
+      <c r="J113">
+        <v>0.10090000182390201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>123</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>32</v>
+      </c>
+      <c r="F114">
+        <v>11.119029639739001</v>
+      </c>
+      <c r="G114">
+        <v>0.97519999742507901</v>
+      </c>
+      <c r="H114">
+        <v>0.57609999179839999</v>
+      </c>
+      <c r="I114">
+        <v>0.16390000283718101</v>
+      </c>
+      <c r="J114">
+        <v>0.12950000166893</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A91:J96">
-    <sortCondition ref="E91:E96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A97:J114">
+    <sortCondition ref="A97:A114"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30B9F78-445B-4B21-BDF7-3DBD0547644A}">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="11" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.93613525237496298</v>
+      </c>
+      <c r="G2">
+        <v>88.59</v>
+      </c>
+      <c r="H2">
+        <v>85.21</v>
+      </c>
+      <c r="I2">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="J2">
+        <v>76.84</v>
+      </c>
+      <c r="L2" s="3">
+        <f>AVERAGE(F2:F4)</f>
+        <v>0.92642254406701419</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:P2" si="0">AVERAGE(G2:G4)</f>
+        <v>88.693333333333328</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>85.466666666666654</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>81.69</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" si="0"/>
+        <v>77.149999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>296</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.90778181907296895</v>
+      </c>
+      <c r="G3">
+        <v>88.79</v>
+      </c>
+      <c r="H3">
+        <v>85.62</v>
+      </c>
+      <c r="I3">
+        <v>81.97</v>
+      </c>
+      <c r="J3">
+        <v>77.53</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.93535056075311096</v>
+      </c>
+      <c r="G4">
+        <v>88.7</v>
+      </c>
+      <c r="H4">
+        <v>85.57</v>
+      </c>
+      <c r="I4">
+        <v>81.64</v>
+      </c>
+      <c r="J4">
+        <v>77.08</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1.73065294788038</v>
+      </c>
+      <c r="G5">
+        <v>93.08</v>
+      </c>
+      <c r="H5">
+        <v>90.12</v>
+      </c>
+      <c r="I5">
+        <v>86.15</v>
+      </c>
+      <c r="J5">
+        <v>80.72</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L52" si="1">AVERAGE(F5:F7)</f>
+        <v>1.7176805504706703</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5:M20" si="2">AVERAGE(G5:G7)</f>
+        <v>93.009999999999991</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N20" si="3">AVERAGE(H5:H7)</f>
+        <v>89.89</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O20" si="4">AVERAGE(I5:I7)</f>
+        <v>85.90000000000002</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P20" si="5">AVERAGE(J5:J7)</f>
+        <v>80.436666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>296</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1.70350817648333</v>
+      </c>
+      <c r="G6">
+        <v>93.08</v>
+      </c>
+      <c r="H6">
+        <v>89.87</v>
+      </c>
+      <c r="I6">
+        <v>85.65</v>
+      </c>
+      <c r="J6">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1.7188805270483001</v>
+      </c>
+      <c r="G7">
+        <v>92.87</v>
+      </c>
+      <c r="H7">
+        <v>89.68</v>
+      </c>
+      <c r="I7">
+        <v>85.9</v>
+      </c>
+      <c r="J7">
+        <v>80.33</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2.91790828616656</v>
+      </c>
+      <c r="G8">
+        <v>95.87</v>
+      </c>
+      <c r="H8">
+        <v>92.24</v>
+      </c>
+      <c r="I8">
+        <v>85.86</v>
+      </c>
+      <c r="J8">
+        <v>76.16</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9387138682850531</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
+        <v>95.936666666666667</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="3"/>
+        <v>92.416666666666671</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
+        <v>86.203333333333333</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="5"/>
+        <v>76.289999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>296</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3.0091567169281301</v>
+      </c>
+      <c r="G9">
+        <v>96.01</v>
+      </c>
+      <c r="H9">
+        <v>92.73</v>
+      </c>
+      <c r="I9">
+        <v>86.6</v>
+      </c>
+      <c r="J9">
+        <v>76.8</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2.8890766017604701</v>
+      </c>
+      <c r="G10">
+        <v>95.93</v>
+      </c>
+      <c r="H10">
+        <v>92.28</v>
+      </c>
+      <c r="I10">
+        <v>86.15</v>
+      </c>
+      <c r="J10">
+        <v>75.91</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.95033678685482503</v>
+      </c>
+      <c r="G11">
+        <v>96.69</v>
+      </c>
+      <c r="H11">
+        <v>95.72</v>
+      </c>
+      <c r="I11">
+        <v>94.36</v>
+      </c>
+      <c r="J11">
+        <v>92.69</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95173629851065933</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>96.606666666666669</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>95.63666666666667</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
+        <v>94.286666666666676</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="5"/>
+        <v>92.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.95403883853763105</v>
+      </c>
+      <c r="G12">
+        <v>96.51</v>
+      </c>
+      <c r="H12">
+        <v>95.51</v>
+      </c>
+      <c r="I12">
+        <v>94.21</v>
+      </c>
+      <c r="J12">
+        <v>92.6</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.95083327013952201</v>
+      </c>
+      <c r="G13">
+        <v>96.62</v>
+      </c>
+      <c r="H13">
+        <v>95.68</v>
+      </c>
+      <c r="I13">
+        <v>94.29</v>
+      </c>
+      <c r="J13">
+        <v>92.57</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>123</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1.56838977827006</v>
+      </c>
+      <c r="G14">
+        <v>97.98</v>
+      </c>
+      <c r="H14">
+        <v>96.6</v>
+      </c>
+      <c r="I14">
+        <v>94.82</v>
+      </c>
+      <c r="J14">
+        <v>92.47</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7028813053087799</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>98.216666666666654</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>97.056666666666658</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
+        <v>95.563333333333333</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="5"/>
+        <v>93.576666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>296</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1.78036041800594</v>
+      </c>
+      <c r="G15">
+        <v>98.33</v>
+      </c>
+      <c r="H15">
+        <v>97.25</v>
+      </c>
+      <c r="I15">
+        <v>96.08</v>
+      </c>
+      <c r="J15">
+        <v>94.14</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1.7598937196503399</v>
+      </c>
+      <c r="G16">
+        <v>98.34</v>
+      </c>
+      <c r="H16">
+        <v>97.32</v>
+      </c>
+      <c r="I16">
+        <v>95.79</v>
+      </c>
+      <c r="J16">
+        <v>94.12</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3.1555295820764102</v>
+      </c>
+      <c r="G17">
+        <v>98.89</v>
+      </c>
+      <c r="H17">
+        <v>97.26</v>
+      </c>
+      <c r="I17">
+        <v>95.17</v>
+      </c>
+      <c r="J17">
+        <v>91.1</v>
+      </c>
+      <c r="L17" s="3">
+        <f>AVERAGE(F17:F19)</f>
+        <v>3.1099109283229036</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>98.87</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="3"/>
+        <v>97.536666666666676</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>95.293333333333337</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="5"/>
+        <v>91.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>296</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3.0923955245013599</v>
+      </c>
+      <c r="G18">
+        <v>98.92</v>
+      </c>
+      <c r="H18">
+        <v>97.74</v>
+      </c>
+      <c r="I18">
+        <v>95.46</v>
+      </c>
+      <c r="J18">
+        <v>91.31</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>3.0818076783909398</v>
+      </c>
+      <c r="G19">
+        <v>98.8</v>
+      </c>
+      <c r="H19">
+        <v>97.61</v>
+      </c>
+      <c r="I19">
+        <v>95.25</v>
+      </c>
+      <c r="J19">
+        <v>91.46</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>123</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.62576237910816901</v>
+      </c>
+      <c r="G20">
+        <v>89.19</v>
+      </c>
+      <c r="H20">
+        <v>84.32</v>
+      </c>
+      <c r="I20">
+        <v>77.53</v>
+      </c>
+      <c r="J20">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7591804840892703</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" ref="M20:M52" si="6">AVERAGE(G20:G22)</f>
+        <v>91.536666666666676</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20:N52" si="7">AVERAGE(H20:H22)</f>
+        <v>87.98</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" ref="O20:O52" si="8">AVERAGE(I20:I22)</f>
+        <v>83.096666666666678</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20:P52" si="9">AVERAGE(J20:J22)</f>
+        <v>77.276666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>296</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.72964173690110201</v>
+      </c>
+      <c r="G21">
+        <v>91.15</v>
+      </c>
+      <c r="H21">
+        <v>87.22</v>
+      </c>
+      <c r="I21">
+        <v>82.37</v>
+      </c>
+      <c r="J21">
+        <v>76.14</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.92213733625854</v>
+      </c>
+      <c r="G22">
+        <v>94.27</v>
+      </c>
+      <c r="H22">
+        <v>92.4</v>
+      </c>
+      <c r="I22">
+        <v>89.39</v>
+      </c>
+      <c r="J22">
+        <v>86.4</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>123</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.81223740368976904</v>
+      </c>
+      <c r="G23">
+        <v>91.75</v>
+      </c>
+      <c r="H23">
+        <v>84.68</v>
+      </c>
+      <c r="I23">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="J23">
+        <v>60.84</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3116209505763929</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="6"/>
+        <v>94.93</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="7"/>
+        <v>91.09333333333332</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="8"/>
+        <v>85.40666666666668</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="9"/>
+        <v>77.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>296</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1.38356312352235</v>
+      </c>
+      <c r="G24">
+        <v>95.74</v>
+      </c>
+      <c r="H24">
+        <v>92.97</v>
+      </c>
+      <c r="I24">
+        <v>88.79</v>
+      </c>
+      <c r="J24">
+        <v>82.8</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1.73906232451706</v>
+      </c>
+      <c r="G25">
+        <v>97.3</v>
+      </c>
+      <c r="H25">
+        <v>95.63</v>
+      </c>
+      <c r="I25">
+        <v>93.17</v>
+      </c>
+      <c r="J25">
+        <v>89.67</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>123</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1.62880408243368</v>
+      </c>
+      <c r="G26">
+        <v>95.73</v>
+      </c>
+      <c r="H26">
+        <v>90.37</v>
+      </c>
+      <c r="I26">
+        <v>79.95</v>
+      </c>
+      <c r="J26">
+        <v>61.42</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4548426250146935</v>
+      </c>
+      <c r="M26" s="3">
+        <f>AVERAGE(G26:G28)</f>
+        <v>97.113333333333344</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="7"/>
+        <v>93.726666666666674</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="8"/>
+        <v>87.223333333333343</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="9"/>
+        <v>75.696666666666658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>296</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>2.61529363176192</v>
+      </c>
+      <c r="G27">
+        <v>97.27</v>
+      </c>
+      <c r="H27">
+        <v>94.47</v>
+      </c>
+      <c r="I27">
+        <v>88.89</v>
+      </c>
+      <c r="J27">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3.1204301608484801</v>
+      </c>
+      <c r="G28">
+        <v>98.34</v>
+      </c>
+      <c r="H28">
+        <v>96.34</v>
+      </c>
+      <c r="I28">
+        <v>92.83</v>
+      </c>
+      <c r="J28">
+        <v>86.32</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>123</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.96695126928684705</v>
+      </c>
+      <c r="G29">
+        <v>94.47</v>
+      </c>
+      <c r="H29">
+        <v>92.86</v>
+      </c>
+      <c r="I29">
+        <v>90.94</v>
+      </c>
+      <c r="J29">
+        <v>88.23</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96018681256082139</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="6"/>
+        <v>94.55</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="7"/>
+        <v>92.92</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="8"/>
+        <v>90.993333333333339</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="9"/>
+        <v>88.343333333333348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>296</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.96298802252675897</v>
+      </c>
+      <c r="G30">
+        <v>94.59</v>
+      </c>
+      <c r="H30">
+        <v>93.04</v>
+      </c>
+      <c r="I30">
+        <v>91.14</v>
+      </c>
+      <c r="J30">
+        <v>88.38</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.95062114586885804</v>
+      </c>
+      <c r="G31">
+        <v>94.59</v>
+      </c>
+      <c r="H31">
+        <v>92.86</v>
+      </c>
+      <c r="I31">
+        <v>90.9</v>
+      </c>
+      <c r="J31">
+        <v>88.42</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>123</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1.72122783649389</v>
+      </c>
+      <c r="G32">
+        <v>97.67</v>
+      </c>
+      <c r="H32">
+        <v>96.27</v>
+      </c>
+      <c r="I32">
+        <v>94.23</v>
+      </c>
+      <c r="J32">
+        <v>91.88</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7439163156680266</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="6"/>
+        <v>97.673333333333332</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="7"/>
+        <v>96.29</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="8"/>
+        <v>94.346666666666678</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="9"/>
+        <v>91.803333333333327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>296</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1.72997040817001</v>
+      </c>
+      <c r="G33">
+        <v>97.72</v>
+      </c>
+      <c r="H33">
+        <v>96.36</v>
+      </c>
+      <c r="I33">
+        <v>94.48</v>
+      </c>
+      <c r="J33">
+        <v>91.89</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1.7805507023401801</v>
+      </c>
+      <c r="G34">
+        <v>97.63</v>
+      </c>
+      <c r="H34">
+        <v>96.24</v>
+      </c>
+      <c r="I34">
+        <v>94.33</v>
+      </c>
+      <c r="J34">
+        <v>91.64</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>123</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>2.7606190349366702</v>
+      </c>
+      <c r="G35">
+        <v>98.7</v>
+      </c>
+      <c r="H35">
+        <v>97.41</v>
+      </c>
+      <c r="I35">
+        <v>94.3</v>
+      </c>
+      <c r="J35">
+        <v>88.32</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8942560155022132</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="6"/>
+        <v>98.776666666666685</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="7"/>
+        <v>97.386666666666656</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="8"/>
+        <v>94.353333333333339</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="9"/>
+        <v>88.61333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>296</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>2.9905456341104801</v>
+      </c>
+      <c r="G36">
+        <v>98.78</v>
+      </c>
+      <c r="H36">
+        <v>97.36</v>
+      </c>
+      <c r="I36">
+        <v>94.33</v>
+      </c>
+      <c r="J36">
+        <v>88.63</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>2.9316033774594898</v>
+      </c>
+      <c r="G37">
+        <v>98.85</v>
+      </c>
+      <c r="H37">
+        <v>97.39</v>
+      </c>
+      <c r="I37">
+        <v>94.43</v>
+      </c>
+      <c r="J37">
+        <v>88.89</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.89465657651425501</v>
+      </c>
+      <c r="G38">
+        <v>97.31</v>
+      </c>
+      <c r="H38">
+        <v>96.35</v>
+      </c>
+      <c r="I38">
+        <v>95.29</v>
+      </c>
+      <c r="J38">
+        <v>93.8</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91438322098615032</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="6"/>
+        <v>97.276666666666657</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="7"/>
+        <v>96.333333333333329</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="8"/>
+        <v>95.176666666666677</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="9"/>
+        <v>93.74666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>296</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.92237581776651001</v>
+      </c>
+      <c r="G39">
+        <v>97.25</v>
+      </c>
+      <c r="H39">
+        <v>96.31</v>
+      </c>
+      <c r="I39">
+        <v>94.98</v>
+      </c>
+      <c r="J39">
+        <v>93.63</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.92611726867768596</v>
+      </c>
+      <c r="G40">
+        <v>97.27</v>
+      </c>
+      <c r="H40">
+        <v>96.34</v>
+      </c>
+      <c r="I40">
+        <v>95.26</v>
+      </c>
+      <c r="J40">
+        <v>93.81</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1.6936105368090399</v>
+      </c>
+      <c r="G41">
+        <v>98.9</v>
+      </c>
+      <c r="H41">
+        <v>98.12</v>
+      </c>
+      <c r="I41">
+        <v>97.03</v>
+      </c>
+      <c r="J41">
+        <v>95.35</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7026474388696899</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="6"/>
+        <v>98.866666666666674</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="7"/>
+        <v>98.15666666666668</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="8"/>
+        <v>97.036666666666676</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="9"/>
+        <v>95.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>296</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1.7240128830253501</v>
+      </c>
+      <c r="G42">
+        <v>98.83</v>
+      </c>
+      <c r="H42">
+        <v>98.2</v>
+      </c>
+      <c r="I42">
+        <v>97.02</v>
+      </c>
+      <c r="J42">
+        <v>95.44</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1.6903188967746801</v>
+      </c>
+      <c r="G43">
+        <v>98.87</v>
+      </c>
+      <c r="H43">
+        <v>98.15</v>
+      </c>
+      <c r="I43">
+        <v>97.06</v>
+      </c>
+      <c r="J43">
+        <v>95.29</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>123</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>2.9057826825223598</v>
+      </c>
+      <c r="G44">
+        <v>99.31</v>
+      </c>
+      <c r="H44">
+        <v>98.36</v>
+      </c>
+      <c r="I44">
+        <v>96.82</v>
+      </c>
+      <c r="J44">
+        <v>93.5</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9685796829365532</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="6"/>
+        <v>99.303333333333342</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="7"/>
+        <v>98.363333333333344</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="8"/>
+        <v>96.84666666666665</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="9"/>
+        <v>93.603333333333339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>296</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>3.0326858737773601</v>
+      </c>
+      <c r="G45">
+        <v>99.31</v>
+      </c>
+      <c r="H45">
+        <v>98.38</v>
+      </c>
+      <c r="I45">
+        <v>96.84</v>
+      </c>
+      <c r="J45">
+        <v>93.55</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>2.96727049250994</v>
+      </c>
+      <c r="G46">
+        <v>99.29</v>
+      </c>
+      <c r="H46">
+        <v>98.35</v>
+      </c>
+      <c r="I46">
+        <v>96.88</v>
+      </c>
+      <c r="J46">
+        <v>93.76</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>3400.5754000000002</v>
+      </c>
+      <c r="F47">
+        <v>230.13197640158501</v>
+      </c>
+      <c r="G47">
+        <v>99.13</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
+        <v>228.69349774850534</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="6"/>
+        <v>99.083333333333329</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>3505.8375999999998</v>
+      </c>
+      <c r="F48">
+        <v>206.19116585101301</v>
+      </c>
+      <c r="G48">
+        <v>99.06</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>296</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>3978.4758000000002</v>
+      </c>
+      <c r="F49">
+        <v>249.75735099291799</v>
+      </c>
+      <c r="G49">
+        <v>99.06</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>8028.9448000000002</v>
+      </c>
+      <c r="F50">
+        <v>145.67790079916</v>
+      </c>
+      <c r="G50">
+        <v>99.37</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
+        <v>163.44782995964701</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="6"/>
+        <v>99.306666666666672</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>123</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>8308.4071999999996</v>
+      </c>
+      <c r="F51">
+        <v>154.42622505382599</v>
+      </c>
+      <c r="G51">
+        <v>99.25</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>296</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>8386.8438000000006</v>
+      </c>
+      <c r="F52">
+        <v>190.23936402595501</v>
+      </c>
+      <c r="G52">
+        <v>99.3</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J52">
+    <sortCondition ref="B2:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
